--- a/templates/IssueBluePrintRollout.xlsx
+++ b/templates/IssueBluePrintRollout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC0E67-6360-C444-93E1-3928736859D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB7430-D6F8-3445-91F0-C606404BBB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15900" yWindow="4600" windowWidth="35300" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="156">
   <si>
     <t>Summary</t>
   </si>
@@ -497,16 +497,13 @@
     <t>Project</t>
   </si>
   <si>
-    <t>CustomerName</t>
-  </si>
-  <si>
     <t>Rollout</t>
   </si>
   <si>
     <t>Perform Document analysis</t>
   </si>
   <si>
-    <t>Capturing Model Training,Enrichment_Model_Training,ReportingandMonitoring,Studio Configuration,Schema Configuration,Reporting and Monitoring</t>
+    <t>Capturing Model Training,Enrichment_Model_Training,Studio Configuration,Schema Configuration,Reporting and Monitoring</t>
   </si>
 </sst>
 </file>
@@ -1494,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D80F210-AA2F-4343-BD62-6442C4F4E9CE}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1531,14 +1528,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>153</v>
-      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1552,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1956,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2103,7 +2098,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>9</v>
@@ -2237,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2258,7 +2253,7 @@
         <v>103</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4">
@@ -2515,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2729,7 +2724,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -2953,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -3226,7 +3221,7 @@
         <v>7</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -3380,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>

--- a/templates/IssueBluePrintRollout.xlsx
+++ b/templates/IssueBluePrintRollout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB7430-D6F8-3445-91F0-C606404BBB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A34CF3-83A1-1244-8AFB-7560C28EA798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15900" yWindow="4600" windowWidth="35300" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="209">
   <si>
     <t>Summary</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>Capturing Model Training</t>
-  </si>
-  <si>
     <t>Create Baseline Project</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Application Implementation</t>
   </si>
   <si>
-    <t>Configure dashboards in Insights according to template</t>
-  </si>
-  <si>
     <t>Studio Configuration</t>
   </si>
   <si>
@@ -131,30 +125,12 @@
     <t>Configure ReRouting Rules</t>
   </si>
   <si>
-    <t>Create testing workbook</t>
-  </si>
-  <si>
     <t>System Integration Test (E2E)</t>
   </si>
   <si>
-    <t>Run Document inbound load test</t>
-  </si>
-  <si>
-    <t>Run Posting Data inbound load test</t>
-  </si>
-  <si>
-    <t>Run Document outbound load test</t>
-  </si>
-  <si>
     <t>Run Masterdata Test</t>
   </si>
   <si>
-    <t>Document inbound and outbound  penny test in TEST env</t>
-  </si>
-  <si>
-    <t>Document inbound and outbound  penny test in PROD env</t>
-  </si>
-  <si>
     <t>Regression testing of E2E flow in PROD env</t>
   </si>
   <si>
@@ -209,21 +185,12 @@
     <t>Create Handover to CC page</t>
   </si>
   <si>
-    <t>Handover to Customer Care</t>
-  </si>
-  <si>
     <t>Lessons learned</t>
   </si>
   <si>
     <t xml:space="preserve">Create lessons learned page </t>
   </si>
   <si>
-    <t>Reporting and Monitoring</t>
-  </si>
-  <si>
-    <t>Share Testing Workbook and QandA Session</t>
-  </si>
-  <si>
     <t>Create and Share Hypercare Issuelog</t>
   </si>
   <si>
@@ -248,9 +215,6 @@
     <t>Data Acquisition</t>
   </si>
   <si>
-    <t>Create StakeholderMapping</t>
-  </si>
-  <si>
     <t>Create Customer Documentation</t>
   </si>
   <si>
@@ -341,9 +305,6 @@
     <t>Prepare and send out data and documentation request</t>
   </si>
   <si>
-    <t>Get Posting and Master Data via SAP Addon</t>
-  </si>
-  <si>
     <t>Data and documentation quality and completeness review</t>
   </si>
   <si>
@@ -353,9 +314,6 @@
     <t>Posting data analysis</t>
   </si>
   <si>
-    <t>ERP posting data, Hypatos Enrichment dashboard, Descriptive Statistics Analysis template</t>
-  </si>
-  <si>
     <t>Perform Master data analysis</t>
   </si>
   <si>
@@ -386,9 +344,6 @@
     <t>Perform Assessement Workshop</t>
   </si>
   <si>
-    <t>Document Processing Workflow, Documents (datapoints), Document types, document languages (regions) analysis</t>
-  </si>
-  <si>
     <t>Prepare Functional Workshop</t>
   </si>
   <si>
@@ -422,18 +377,9 @@
     <t>List of users and roles (permissions)</t>
   </si>
   <si>
-    <t>Customer to provide List</t>
-  </si>
-  <si>
     <t>Create Studio companies and projects concept design</t>
   </si>
   <si>
-    <t>Document Inbound Integration</t>
-  </si>
-  <si>
-    <t>Document Outbound Integration</t>
-  </si>
-  <si>
     <t>Posting Data Inbound Integration Documentation</t>
   </si>
   <si>
@@ -443,21 +389,12 @@
     <t>Create Integration rules</t>
   </si>
   <si>
-    <t>ReportingandMonitoring</t>
-  </si>
-  <si>
     <t>Document reporting and monitoring concept</t>
   </si>
   <si>
-    <t>Enrichment_Model_Training</t>
-  </si>
-  <si>
     <t>Insights Standard Collections for Reporting and Monitoring</t>
   </si>
   <si>
-    <t>Configure Attribute Prediction, Configure Master Data Enrichment</t>
-  </si>
-  <si>
     <t xml:space="preserve"> recommendations to improve model performance </t>
   </si>
   <si>
@@ -482,18 +419,12 @@
     <t>CUS to perform funct. Testing</t>
   </si>
   <si>
-    <t>Testing_Phase</t>
-  </si>
-  <si>
     <t>Hypercare_Phase</t>
   </si>
   <si>
     <t>Create SoW</t>
   </si>
   <si>
-    <t>Sign SoW</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -503,14 +434,242 @@
     <t>Perform Document analysis</t>
   </si>
   <si>
-    <t>Capturing Model Training,Enrichment_Model_Training,Studio Configuration,Schema Configuration,Reporting and Monitoring</t>
+    <t>Create StakeholderMapping and Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM Deliverable </t>
+  </si>
+  <si>
+    <t>Create Project Governance Structure</t>
+  </si>
+  <si>
+    <t>Create Executive Report (based on template)</t>
+  </si>
+  <si>
+    <t>Schedule Executive Status Meetings</t>
+  </si>
+  <si>
+    <t>PM Deliverable (monthly)</t>
+  </si>
+  <si>
+    <t>Schedule JourFixe Meeting</t>
+  </si>
+  <si>
+    <t>PM Deliverable .- weekly / bi weekly ( Regular Project KPIs Reporting)</t>
+  </si>
+  <si>
+    <t>MileStone_Kickoff Workshop</t>
+  </si>
+  <si>
+    <t>MileStone_Training Data Confirmation</t>
+  </si>
+  <si>
+    <t>Create Studio Company</t>
+  </si>
+  <si>
+    <t>[TEST and [ML]</t>
+  </si>
+  <si>
+    <t>Create apiv2 credentials</t>
+  </si>
+  <si>
+    <t>Share apiv2 credentials</t>
+  </si>
+  <si>
+    <t>Gather Information about current SAP system and Relevant Stakeholder for certificates</t>
+  </si>
+  <si>
+    <t>(R3, S4Hana)</t>
+  </si>
+  <si>
+    <t>Add CUS to SAP list, provide email for certificate renewal to devops</t>
+  </si>
+  <si>
+    <t>Send SAP Addon InstallationPackages</t>
+  </si>
+  <si>
+    <t>(Install andService Packages SP1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send SAP Addon Documentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule SAP Addon FAQ Session </t>
+  </si>
+  <si>
+    <t xml:space="preserve">invite SAP Basis and HY SAP engineers </t>
+  </si>
+  <si>
+    <t>Install SAP Addon</t>
+  </si>
+  <si>
+    <t>Configure SAP Addon</t>
+  </si>
+  <si>
+    <t>Prepare Sample Dataset for ML Training</t>
+  </si>
+  <si>
+    <t>CUS Deliverable - create a list of top vendorids, or companycodes in scope</t>
+  </si>
+  <si>
+    <t>Get Posting Data inlc. Document Images via SAP Addon</t>
+  </si>
+  <si>
+    <t>Get Master Data via SAP Addon</t>
+  </si>
+  <si>
+    <t>Requirement Gathering Deliverable - ERP posting data, Hypatos Enrichment dashboard, Descriptive Statistics Analysis template</t>
+  </si>
+  <si>
+    <t>Perform System analysis</t>
+  </si>
+  <si>
+    <t>Requirement Gathering Deliverable - Current P2P System Architecture / Integration Architecture, Architecture documentation, Hypatos Studio Standard process template</t>
+  </si>
+  <si>
+    <t>Requirement Gathering Deliverable - Document Processing Workflow, Documents (datapoints), Document types, document languages (regions) analysis</t>
+  </si>
+  <si>
+    <t>Requirement Gathering Deliverable</t>
+  </si>
+  <si>
+    <t>Prepare Business requirements for Custom Datapoints</t>
+  </si>
+  <si>
+    <t>CUS Deliverable</t>
+  </si>
+  <si>
+    <t>Prepare Sample Documents for Custom Datapoints</t>
+  </si>
+  <si>
+    <t>MileStone_SoW and Solution Design Confirmation</t>
+  </si>
+  <si>
+    <t>CUS Deliverable - Customer to provide List of Users</t>
+  </si>
+  <si>
+    <t>Document Inbound Configuration Integration</t>
+  </si>
+  <si>
+    <t>Document Outbound Configuration Integration</t>
+  </si>
+  <si>
+    <t>ReportingandMonitoring Design</t>
+  </si>
+  <si>
+    <t>Create Solution Design</t>
+  </si>
+  <si>
+    <t>Capturing Model Configuration,Enrichment_Model_Configuration,Document Inbound Configuration,Document Outbound Configuration,Posting_Data_Inbound_Configuration,PO_Data_Inbound_Configuration,Integration Rules Implementation,Reporting and Monitoring Configuration,Studio Configuration,Schema Configuration</t>
+  </si>
+  <si>
+    <t>Capturing Model Configuration</t>
+  </si>
+  <si>
+    <t>Enrichment_Model_Configuration</t>
+  </si>
+  <si>
+    <t>Integration Implementation</t>
+  </si>
+  <si>
+    <t>Document Inbound Configuration</t>
+  </si>
+  <si>
+    <t>Add Inbound Projects (ids and emailaddress) to Project List</t>
+  </si>
+  <si>
+    <t>Support API Configuration</t>
+  </si>
+  <si>
+    <t>Document Outbound Configuration</t>
+  </si>
+  <si>
+    <t>API Configuration Support OB</t>
+  </si>
+  <si>
+    <t>Posting_Data_Inbound_Configuration</t>
+  </si>
+  <si>
+    <t>API Configuration Support PDIB</t>
+  </si>
+  <si>
+    <t>PO_Data_Inbound_Configuration</t>
+  </si>
+  <si>
+    <t>API Configuration Support PO</t>
+  </si>
+  <si>
+    <t>Integration Rules Implementation</t>
+  </si>
+  <si>
+    <t>Middleware Configuration Support</t>
+  </si>
+  <si>
+    <t>Reporting and Monitoring Configuration</t>
+  </si>
+  <si>
+    <t>Configure Model Insights Dashboard</t>
+  </si>
+  <si>
+    <t>Configure QA Insights Dashboard</t>
+  </si>
+  <si>
+    <t>Configure Error Analysis Dashboard</t>
+  </si>
+  <si>
+    <t>Create Supplier Master Data Configuration</t>
+  </si>
+  <si>
+    <t>Create Company Master Data Configuration</t>
+  </si>
+  <si>
+    <t>Create PO Line Matching Configuration</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Create testing plan workbook</t>
+  </si>
+  <si>
+    <t>PM Deliverable - including teststrategy, testplan and testsummary, uat findings, report, exit report</t>
+  </si>
+  <si>
+    <t>Share Testplan Workbook and QandA Session</t>
+  </si>
+  <si>
+    <t>MileStone_SIT approved</t>
+  </si>
+  <si>
+    <t>Run Document  Inbound load test</t>
+  </si>
+  <si>
+    <t>Run Posting data inbound configuration load test</t>
+  </si>
+  <si>
+    <t>Run Document Outbound Configuration load test</t>
+  </si>
+  <si>
+    <t>Document Inbound  and outbound  penny test in TEST env</t>
+  </si>
+  <si>
+    <t>Document Inbound and outbound  penny test in PROD env</t>
+  </si>
+  <si>
+    <t>MileStone_UAT approved_Go Live decision</t>
+  </si>
+  <si>
+    <t>MileStone_Go Live</t>
+  </si>
+  <si>
+    <t>MileStone_Hypercare Closing_Handover to Customer Care</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,14 +708,6 @@
       <color rgb="FF000000"/>
       <name val="Lato"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -640,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -675,10 +826,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -690,7 +837,1507 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="200">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1489,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D80F210-AA2F-4343-BD62-6442C4F4E9CE}">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1528,12 +3175,11 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="10"/>
+        <v>129</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1541,13 +3187,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1556,19 +3202,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
@@ -1577,92 +3223,96 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="1" t="s">
-        <v>72</v>
+      <c r="F6" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>73</v>
+      <c r="A7" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>77</v>
+      <c r="A10" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1670,61 +3320,63 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
+      <c r="A11" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
+      <c r="A12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1733,28 +3385,30 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1762,14 +3416,14 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>85</v>
+      <c r="A17" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1777,14 +3431,14 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>86</v>
+      <c r="A18" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1793,30 +3447,30 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1825,28 +3479,30 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1855,13 +3511,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1870,13 +3526,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1885,587 +3541,609 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>95</v>
+      <c r="A26" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>96</v>
+      <c r="A27" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>153</v>
+        <v>138</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>69</v>
+      <c r="A30" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4">
-        <v>19</v>
-      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>100</v>
+      <c r="A31" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>101</v>
+      <c r="A32" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>106</v>
+      <c r="A36" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>108</v>
+      <c r="A37" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="1" t="s">
-        <v>109</v>
+      <c r="F37" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>111</v>
+      <c r="A39" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>113</v>
+      <c r="A40" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="1" t="s">
-        <v>114</v>
+      <c r="F40" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>115</v>
+      <c r="A41" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>117</v>
+      <c r="A42" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>118</v>
+      <c r="A43" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="2"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>119</v>
+      <c r="A44" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>120</v>
+      <c r="A45" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>153</v>
+      <c r="A46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="2"/>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4">
-        <v>14</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>123</v>
+      <c r="A49" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>124</v>
+      <c r="A50" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>125</v>
+      <c r="A51" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>126</v>
+      <c r="A52" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="F55" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="F56" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="F57" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="F59" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="F60" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>136</v>
+      <c r="A61" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2473,76 +4151,80 @@
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>150</v>
+      <c r="A62" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>151</v>
+      <c r="A63" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>153</v>
+      <c r="A64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>3</v>
+        <v>104</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4">
-        <v>21</v>
-      </c>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>12</v>
+      <c r="A66" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>11</v>
+      <c r="C66" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -2550,14 +4232,14 @@
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>11</v>
+      <c r="A67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2566,28 +4248,34 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4">
         <v>14</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>11</v>
+      <c r="C69" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -2595,14 +4283,14 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>16</v>
+      <c r="A70" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>11</v>
+      <c r="C70" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -2611,13 +4299,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>11</v>
+      <c r="C71" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -2626,13 +4314,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>11</v>
+      <c r="C72" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -2640,46 +4328,46 @@
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>3</v>
+      <c r="A73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4">
-        <v>14</v>
-      </c>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>144</v>
+      <c r="A74" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>137</v>
+      <c r="C74" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="F74" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>142</v>
+      <c r="A75" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>137</v>
+      <c r="C75" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -2687,14 +4375,14 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>141</v>
+      <c r="A76" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>137</v>
+      <c r="C76" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -2702,14 +4390,14 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>143</v>
+      <c r="A77" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>137</v>
+      <c r="C77" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -2717,14 +4405,14 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>153</v>
+      <c r="A78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -2732,65 +4420,59 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>3</v>
+      <c r="A79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="4">
-        <v>1</v>
-      </c>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>20</v>
+      <c r="A80" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>60</v>
+      <c r="C80" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4">
-        <v>14</v>
-      </c>
+      <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>22</v>
+      <c r="A82" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>21</v>
+      <c r="C82" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -2798,14 +4480,14 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>63</v>
+      <c r="A83" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>21</v>
+      <c r="C83" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -2813,14 +4495,14 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>28</v>
+      <c r="A84" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>21</v>
+      <c r="C84" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -2828,67 +4510,67 @@
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="A85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>146</v>
+      <c r="C85" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="4"/>
+      <c r="A87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="1"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -2897,13 +4579,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -2912,13 +4594,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -2926,14 +4608,14 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
-        <v>30</v>
+      <c r="A91" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -2941,14 +4623,14 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>153</v>
+      <c r="A92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -2957,34 +4639,28 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="4">
-        <v>3</v>
-      </c>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>146</v>
+      <c r="A94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -2992,29 +4668,31 @@
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" s="4"/>
+      <c r="A95" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="G95" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>146</v>
+      <c r="A96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -3022,14 +4700,14 @@
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>146</v>
+      <c r="A97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -3037,35 +4715,29 @@
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="4">
-        <v>7</v>
-      </c>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>33</v>
+      <c r="A99" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -3074,13 +4746,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>32</v>
+        <v>177</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -3088,29 +4760,31 @@
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="A101" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="G101" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -3119,13 +4793,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -3133,29 +4807,31 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="A104" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+      <c r="G104" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -3163,35 +4839,31 @@
       <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="A106" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="C106" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -3199,29 +4871,31 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D108" s="4"/>
+      <c r="A108" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="1"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="G108" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>153</v>
+        <v>186</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -3230,30 +4904,30 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="18" t="s">
-        <v>44</v>
+      <c r="A111" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3261,14 +4935,14 @@
       <c r="G111" s="4"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>43</v>
+      <c r="A112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -3276,91 +4950,99 @@
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>43</v>
+      <c r="A113" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>47</v>
+      <c r="A114" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>43</v>
+      <c r="A117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+      <c r="G117" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>48</v>
+      <c r="A118" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -3368,14 +5050,14 @@
       <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>153</v>
+      <c r="A119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -3383,50 +5065,50 @@
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="A120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="4">
-        <v>2</v>
-      </c>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="17" t="s">
-        <v>53</v>
+      <c r="A122" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="17" t="s">
-        <v>51</v>
+      <c r="C122" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -3434,14 +5116,14 @@
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
-        <v>54</v>
+      <c r="A123" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="17" t="s">
-        <v>51</v>
+      <c r="C123" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -3449,14 +5131,14 @@
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="17" t="s">
-        <v>55</v>
+      <c r="A124" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C124" s="17" t="s">
-        <v>51</v>
+      <c r="C124" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -3464,35 +5146,29 @@
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A125" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="4">
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -3500,14 +5176,14 @@
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>56</v>
+      <c r="A127" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -3515,14 +5191,14 @@
       <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>57</v>
+      <c r="A128" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -3530,148 +5206,1027 @@
       <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>50</v>
+      <c r="A129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="4">
-        <v>1</v>
-      </c>
+      <c r="G129" s="4"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>59</v>
+      <c r="A130" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="49" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="47" priority="342"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="341"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A77">
-    <cfRule type="duplicateValues" dxfId="45" priority="398"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="397"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A97">
-    <cfRule type="duplicateValues" dxfId="43" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:A130 A78:A92 A98:A124">
-    <cfRule type="duplicateValues" dxfId="41" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="145" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="duplicateValues" dxfId="143" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86 A3:A4 A34:A35 A51:A52 A67">
+    <cfRule type="duplicateValues" dxfId="141" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="duplicateValues" dxfId="139" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:A101 A104 A106 A108 A110">
+    <cfRule type="duplicateValues" dxfId="137" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145">
+    <cfRule type="duplicateValues" dxfId="135" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
+    <cfRule type="duplicateValues" dxfId="133" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166">
+    <cfRule type="duplicateValues" dxfId="131" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171 A112:A113 A137 A146 A150:A151 A117 A121 A160:A161">
+    <cfRule type="duplicateValues" dxfId="129" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="duplicateValues" dxfId="127" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="duplicateValues" dxfId="125" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="duplicateValues" dxfId="123" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="duplicateValues" dxfId="121" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="duplicateValues" dxfId="119" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="duplicateValues" dxfId="117" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D132">
+    <cfRule type="duplicateValues" dxfId="115" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D137">
+    <cfRule type="duplicateValues" dxfId="113" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D145">
+    <cfRule type="duplicateValues" dxfId="111" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146">
+    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D149">
+    <cfRule type="duplicateValues" dxfId="107" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D166">
+    <cfRule type="duplicateValues" dxfId="105" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="duplicateValues" dxfId="103" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="duplicateValues" dxfId="101" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="duplicateValues" dxfId="99" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="duplicateValues" dxfId="97" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E132">
+    <cfRule type="duplicateValues" dxfId="95" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="duplicateValues" dxfId="93" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="duplicateValues" dxfId="91" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="duplicateValues" dxfId="89" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="duplicateValues" dxfId="87" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="duplicateValues" dxfId="85" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170">
+    <cfRule type="duplicateValues" dxfId="83" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="duplicateValues" dxfId="81" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="duplicateValues" dxfId="79" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="duplicateValues" dxfId="77" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="75" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A32">
+    <cfRule type="duplicateValues" dxfId="73" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="39" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="37" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="duplicateValues" dxfId="35" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="33" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="duplicateValues" dxfId="31" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="duplicateValues" dxfId="29" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="duplicateValues" dxfId="27" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="duplicateValues" dxfId="25" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
-    <cfRule type="duplicateValues" dxfId="23" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="duplicateValues" dxfId="21" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="19" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="duplicateValues" dxfId="17" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="duplicateValues" dxfId="15" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="13" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="duplicateValues" dxfId="11" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="duplicateValues" dxfId="9" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="duplicateValues" dxfId="7" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="duplicateValues" dxfId="5" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="duplicateValues" dxfId="3" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="duplicateValues" dxfId="67" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="duplicateValues" dxfId="65" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A50">
+    <cfRule type="duplicateValues" dxfId="63" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:A39">
+    <cfRule type="duplicateValues" dxfId="61" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:A66">
+    <cfRule type="duplicateValues" dxfId="59" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="duplicateValues" dxfId="57" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="duplicateValues" dxfId="55" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A84">
+    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="51" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="duplicateValues" dxfId="49" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="duplicateValues" dxfId="47" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88:A94">
+    <cfRule type="duplicateValues" dxfId="45" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:A99">
+    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="duplicateValues" dxfId="41" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="duplicateValues" dxfId="39" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A103">
+    <cfRule type="duplicateValues" dxfId="37" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="duplicateValues" dxfId="33" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="duplicateValues" dxfId="31" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114:A116">
+    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:A120">
+    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A130 A122:A124">
+    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D121">
+    <cfRule type="duplicateValues" dxfId="21" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="duplicateValues" dxfId="19" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133:A136">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138:A144">
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:A148">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:A159">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:A165">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:A169">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/IssueBluePrintRollout.xlsx
+++ b/templates/IssueBluePrintRollout.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A34CF3-83A1-1244-8AFB-7560C28EA798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA7FB9-A7DB-054A-A323-CF5246E116A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="4600" windowWidth="35300" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15160" yWindow="500" windowWidth="36040" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$130</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="210">
   <si>
     <t>Summary</t>
   </si>
@@ -413,253 +410,256 @@
     <t>Hy to perform funct testing</t>
   </si>
   <si>
+    <t>CUS to perform funct. Testing</t>
+  </si>
+  <si>
+    <t>Create SoW</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Rollout</t>
+  </si>
+  <si>
+    <t>Perform Document analysis</t>
+  </si>
+  <si>
+    <t>Create StakeholderMapping and Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM Deliverable </t>
+  </si>
+  <si>
+    <t>Create Project Governance Structure</t>
+  </si>
+  <si>
+    <t>Create Executive Report (based on template)</t>
+  </si>
+  <si>
+    <t>Schedule Executive Status Meetings</t>
+  </si>
+  <si>
+    <t>PM Deliverable (monthly)</t>
+  </si>
+  <si>
+    <t>Schedule JourFixe Meeting</t>
+  </si>
+  <si>
+    <t>PM Deliverable .- weekly / bi weekly ( Regular Project KPIs Reporting)</t>
+  </si>
+  <si>
+    <t>Create Studio Company</t>
+  </si>
+  <si>
+    <t>[TEST and [ML]</t>
+  </si>
+  <si>
+    <t>Create apiv2 credentials</t>
+  </si>
+  <si>
+    <t>Share apiv2 credentials</t>
+  </si>
+  <si>
+    <t>Gather Information about current SAP system and Relevant Stakeholder for certificates</t>
+  </si>
+  <si>
+    <t>(R3, S4Hana)</t>
+  </si>
+  <si>
+    <t>Add CUS to SAP list, provide email for certificate renewal to devops</t>
+  </si>
+  <si>
+    <t>Send SAP Addon InstallationPackages</t>
+  </si>
+  <si>
+    <t>(Install andService Packages SP1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send SAP Addon Documentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule SAP Addon FAQ Session </t>
+  </si>
+  <si>
+    <t xml:space="preserve">invite SAP Basis and HY SAP engineers </t>
+  </si>
+  <si>
+    <t>Install SAP Addon</t>
+  </si>
+  <si>
+    <t>Configure SAP Addon</t>
+  </si>
+  <si>
+    <t>Prepare Sample Dataset for ML Training</t>
+  </si>
+  <si>
+    <t>CUS Deliverable - create a list of top vendorids, or companycodes in scope</t>
+  </si>
+  <si>
+    <t>Get Posting Data inlc. Document Images via SAP Addon</t>
+  </si>
+  <si>
+    <t>Get Master Data via SAP Addon</t>
+  </si>
+  <si>
+    <t>Requirement Gathering Deliverable - ERP posting data, Hypatos Enrichment dashboard, Descriptive Statistics Analysis template</t>
+  </si>
+  <si>
+    <t>Perform System analysis</t>
+  </si>
+  <si>
+    <t>Requirement Gathering Deliverable - Current P2P System Architecture / Integration Architecture, Architecture documentation, Hypatos Studio Standard process template</t>
+  </si>
+  <si>
+    <t>Requirement Gathering Deliverable - Document Processing Workflow, Documents (datapoints), Document types, document languages (regions) analysis</t>
+  </si>
+  <si>
+    <t>Requirement Gathering Deliverable</t>
+  </si>
+  <si>
+    <t>Prepare Business requirements for Custom Datapoints</t>
+  </si>
+  <si>
+    <t>CUS Deliverable</t>
+  </si>
+  <si>
+    <t>Prepare Sample Documents for Custom Datapoints</t>
+  </si>
+  <si>
+    <t>CUS Deliverable - Customer to provide List of Users</t>
+  </si>
+  <si>
+    <t>Document Inbound Configuration Integration</t>
+  </si>
+  <si>
+    <t>Document Outbound Configuration Integration</t>
+  </si>
+  <si>
+    <t>ReportingandMonitoring Design</t>
+  </si>
+  <si>
+    <t>Create Solution Design</t>
+  </si>
+  <si>
+    <t>Capturing Model Configuration</t>
+  </si>
+  <si>
+    <t>Integration Implementation</t>
+  </si>
+  <si>
+    <t>Document Inbound Configuration</t>
+  </si>
+  <si>
+    <t>Add Inbound Projects (ids and emailaddress) to Project List</t>
+  </si>
+  <si>
+    <t>Support API Configuration</t>
+  </si>
+  <si>
+    <t>Document Outbound Configuration</t>
+  </si>
+  <si>
+    <t>API Configuration Support OB</t>
+  </si>
+  <si>
+    <t>API Configuration Support PDIB</t>
+  </si>
+  <si>
+    <t>API Configuration Support PO</t>
+  </si>
+  <si>
+    <t>Integration Rules Implementation</t>
+  </si>
+  <si>
+    <t>Middleware Configuration Support</t>
+  </si>
+  <si>
+    <t>Reporting and Monitoring Configuration</t>
+  </si>
+  <si>
+    <t>Configure Model Insights Dashboard</t>
+  </si>
+  <si>
+    <t>Configure QA Insights Dashboard</t>
+  </si>
+  <si>
+    <t>Configure Error Analysis Dashboard</t>
+  </si>
+  <si>
+    <t>Create Supplier Master Data Configuration</t>
+  </si>
+  <si>
+    <t>Create Company Master Data Configuration</t>
+  </si>
+  <si>
+    <t>Create PO Line Matching Configuration</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Create testing plan workbook</t>
+  </si>
+  <si>
+    <t>PM Deliverable - including teststrategy, testplan and testsummary, uat findings, report, exit report</t>
+  </si>
+  <si>
+    <t>Share Testplan Workbook and QandA Session</t>
+  </si>
+  <si>
+    <t>Run Document  Inbound load test</t>
+  </si>
+  <si>
+    <t>Run Posting data inbound configuration load test</t>
+  </si>
+  <si>
+    <t>Run Document Outbound Configuration load test</t>
+  </si>
+  <si>
+    <t>Document Inbound  and outbound  penny test in TEST env</t>
+  </si>
+  <si>
+    <t>Document Inbound and outbound  penny test in PROD env</t>
+  </si>
+  <si>
+    <t>Data Acquisition,Requirement Analysis</t>
+  </si>
+  <si>
+    <t>MileStone_Kickoff Workshop</t>
+  </si>
+  <si>
+    <t>MileStone_Training Data Confirmation</t>
+  </si>
+  <si>
+    <t>MileStone_SoW and Solution Design Confirmation</t>
+  </si>
+  <si>
+    <t>Capturing Model Configuration,Enrichment_Model_Configuration,Document Inbound Configuration,Document Outbound Configuration,Posting_Data_Inbound_Configuration,PO_Data_Inbound_Configuration,Integration Rules Implementation,Reporting and Monitoring Configuration,Studio Configuration,Schema Configuration</t>
+  </si>
+  <si>
+    <t>Enrichment_Model_Configuration</t>
+  </si>
+  <si>
+    <t>Posting_Data_Inbound_Configuration</t>
+  </si>
+  <si>
+    <t>PO_Data_Inbound_Configuration</t>
+  </si>
+  <si>
     <t>Functional_Testing</t>
   </si>
   <si>
-    <t>CUS to perform funct. Testing</t>
+    <t>MileStone_SIT approved</t>
+  </si>
+  <si>
+    <t>MileStone_UAT approved_Go Live decision</t>
+  </si>
+  <si>
+    <t>MileStone_Go Live</t>
   </si>
   <si>
     <t>Hypercare_Phase</t>
-  </si>
-  <si>
-    <t>Create SoW</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Rollout</t>
-  </si>
-  <si>
-    <t>Perform Document analysis</t>
-  </si>
-  <si>
-    <t>Create StakeholderMapping and Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM Deliverable </t>
-  </si>
-  <si>
-    <t>Create Project Governance Structure</t>
-  </si>
-  <si>
-    <t>Create Executive Report (based on template)</t>
-  </si>
-  <si>
-    <t>Schedule Executive Status Meetings</t>
-  </si>
-  <si>
-    <t>PM Deliverable (monthly)</t>
-  </si>
-  <si>
-    <t>Schedule JourFixe Meeting</t>
-  </si>
-  <si>
-    <t>PM Deliverable .- weekly / bi weekly ( Regular Project KPIs Reporting)</t>
-  </si>
-  <si>
-    <t>MileStone_Kickoff Workshop</t>
-  </si>
-  <si>
-    <t>MileStone_Training Data Confirmation</t>
-  </si>
-  <si>
-    <t>Create Studio Company</t>
-  </si>
-  <si>
-    <t>[TEST and [ML]</t>
-  </si>
-  <si>
-    <t>Create apiv2 credentials</t>
-  </si>
-  <si>
-    <t>Share apiv2 credentials</t>
-  </si>
-  <si>
-    <t>Gather Information about current SAP system and Relevant Stakeholder for certificates</t>
-  </si>
-  <si>
-    <t>(R3, S4Hana)</t>
-  </si>
-  <si>
-    <t>Add CUS to SAP list, provide email for certificate renewal to devops</t>
-  </si>
-  <si>
-    <t>Send SAP Addon InstallationPackages</t>
-  </si>
-  <si>
-    <t>(Install andService Packages SP1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send SAP Addon Documentation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schedule SAP Addon FAQ Session </t>
-  </si>
-  <si>
-    <t xml:space="preserve">invite SAP Basis and HY SAP engineers </t>
-  </si>
-  <si>
-    <t>Install SAP Addon</t>
-  </si>
-  <si>
-    <t>Configure SAP Addon</t>
-  </si>
-  <si>
-    <t>Prepare Sample Dataset for ML Training</t>
-  </si>
-  <si>
-    <t>CUS Deliverable - create a list of top vendorids, or companycodes in scope</t>
-  </si>
-  <si>
-    <t>Get Posting Data inlc. Document Images via SAP Addon</t>
-  </si>
-  <si>
-    <t>Get Master Data via SAP Addon</t>
-  </si>
-  <si>
-    <t>Requirement Gathering Deliverable - ERP posting data, Hypatos Enrichment dashboard, Descriptive Statistics Analysis template</t>
-  </si>
-  <si>
-    <t>Perform System analysis</t>
-  </si>
-  <si>
-    <t>Requirement Gathering Deliverable - Current P2P System Architecture / Integration Architecture, Architecture documentation, Hypatos Studio Standard process template</t>
-  </si>
-  <si>
-    <t>Requirement Gathering Deliverable - Document Processing Workflow, Documents (datapoints), Document types, document languages (regions) analysis</t>
-  </si>
-  <si>
-    <t>Requirement Gathering Deliverable</t>
-  </si>
-  <si>
-    <t>Prepare Business requirements for Custom Datapoints</t>
-  </si>
-  <si>
-    <t>CUS Deliverable</t>
-  </si>
-  <si>
-    <t>Prepare Sample Documents for Custom Datapoints</t>
-  </si>
-  <si>
-    <t>MileStone_SoW and Solution Design Confirmation</t>
-  </si>
-  <si>
-    <t>CUS Deliverable - Customer to provide List of Users</t>
-  </si>
-  <si>
-    <t>Document Inbound Configuration Integration</t>
-  </si>
-  <si>
-    <t>Document Outbound Configuration Integration</t>
-  </si>
-  <si>
-    <t>ReportingandMonitoring Design</t>
-  </si>
-  <si>
-    <t>Create Solution Design</t>
-  </si>
-  <si>
-    <t>Capturing Model Configuration,Enrichment_Model_Configuration,Document Inbound Configuration,Document Outbound Configuration,Posting_Data_Inbound_Configuration,PO_Data_Inbound_Configuration,Integration Rules Implementation,Reporting and Monitoring Configuration,Studio Configuration,Schema Configuration</t>
-  </si>
-  <si>
-    <t>Capturing Model Configuration</t>
-  </si>
-  <si>
-    <t>Enrichment_Model_Configuration</t>
-  </si>
-  <si>
-    <t>Integration Implementation</t>
-  </si>
-  <si>
-    <t>Document Inbound Configuration</t>
-  </si>
-  <si>
-    <t>Add Inbound Projects (ids and emailaddress) to Project List</t>
-  </si>
-  <si>
-    <t>Support API Configuration</t>
-  </si>
-  <si>
-    <t>Document Outbound Configuration</t>
-  </si>
-  <si>
-    <t>API Configuration Support OB</t>
-  </si>
-  <si>
-    <t>Posting_Data_Inbound_Configuration</t>
-  </si>
-  <si>
-    <t>API Configuration Support PDIB</t>
-  </si>
-  <si>
-    <t>PO_Data_Inbound_Configuration</t>
-  </si>
-  <si>
-    <t>API Configuration Support PO</t>
-  </si>
-  <si>
-    <t>Integration Rules Implementation</t>
-  </si>
-  <si>
-    <t>Middleware Configuration Support</t>
-  </si>
-  <si>
-    <t>Reporting and Monitoring Configuration</t>
-  </si>
-  <si>
-    <t>Configure Model Insights Dashboard</t>
-  </si>
-  <si>
-    <t>Configure QA Insights Dashboard</t>
-  </si>
-  <si>
-    <t>Configure Error Analysis Dashboard</t>
-  </si>
-  <si>
-    <t>Create Supplier Master Data Configuration</t>
-  </si>
-  <si>
-    <t>Create Company Master Data Configuration</t>
-  </si>
-  <si>
-    <t>Create PO Line Matching Configuration</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Create testing plan workbook</t>
-  </si>
-  <si>
-    <t>PM Deliverable - including teststrategy, testplan and testsummary, uat findings, report, exit report</t>
-  </si>
-  <si>
-    <t>Share Testplan Workbook and QandA Session</t>
-  </si>
-  <si>
-    <t>MileStone_SIT approved</t>
-  </si>
-  <si>
-    <t>Run Document  Inbound load test</t>
-  </si>
-  <si>
-    <t>Run Posting data inbound configuration load test</t>
-  </si>
-  <si>
-    <t>Run Document Outbound Configuration load test</t>
-  </si>
-  <si>
-    <t>Document Inbound  and outbound  penny test in TEST env</t>
-  </si>
-  <si>
-    <t>Document Inbound and outbound  penny test in PROD env</t>
-  </si>
-  <si>
-    <t>MileStone_UAT approved_Go Live decision</t>
-  </si>
-  <si>
-    <t>MileStone_Go Live</t>
   </si>
   <si>
     <t>MileStone_Hypercare Closing_Handover to Customer Care</t>
@@ -837,427 +837,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="200">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="158">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3135,20 +2715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D80F210-AA2F-4343-BD62-6442C4F4E9CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C95CBC0-2490-A547-91E1-837C6DBA4BFC}">
   <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="69" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
@@ -3175,10 +2749,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
@@ -3186,14 +2760,14 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3201,86 +2775,76 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>132</v>
+      <c r="A5" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>134</v>
+      <c r="A6" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
+      <c r="A7" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3288,31 +2852,31 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
+      <c r="A9" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>57</v>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
+      <c r="A10" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>57</v>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3321,47 +2885,43 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -3369,23 +2929,29 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
+      <c r="A14" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
+      <c r="A15" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -3395,14 +2961,14 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>69</v>
+      <c r="F15" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>70</v>
+      <c r="A16" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
@@ -3412,12 +2978,14 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>71</v>
+      <c r="A17" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
@@ -3427,12 +2995,14 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
@@ -3446,8 +3016,8 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>73</v>
+      <c r="A19" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
@@ -3458,13 +3028,13 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>74</v>
+      <c r="A20" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
@@ -3479,7 +3049,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -3490,13 +3060,13 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
@@ -3506,12 +3076,14 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>78</v>
+      <c r="A23" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
@@ -3525,8 +3097,8 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>79</v>
+      <c r="A24" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
@@ -3540,8 +3112,8 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>80</v>
+      <c r="A25" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>9</v>
@@ -3552,13 +3124,13 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>81</v>
+      <c r="A26" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
@@ -3568,14 +3140,12 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>82</v>
+      <c r="A27" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>9</v>
@@ -3585,14 +3155,12 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
@@ -3602,14 +3170,12 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>138</v>
+      <c r="A29" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>9</v>
@@ -3620,13 +3186,13 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>83</v>
+      <c r="A30" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>9</v>
@@ -3640,8 +3206,8 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>84</v>
+      <c r="A31" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>9</v>
@@ -3651,12 +3217,14 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>85</v>
+      <c r="A32" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
@@ -3671,30 +3239,28 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>130</v>
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3703,186 +3269,186 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4">
-        <v>19</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="2" t="s">
-        <v>143</v>
+      <c r="F37" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>144</v>
+      <c r="A38" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>145</v>
+      <c r="A39" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>146</v>
+      <c r="A40" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>148</v>
+      <c r="A41" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>149</v>
+      <c r="A42" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>58</v>
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -3897,7 +3463,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>9</v>
@@ -3908,13 +3474,13 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
@@ -3929,7 +3495,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>9</v>
@@ -3944,7 +3510,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>9</v>
@@ -3954,205 +3520,191 @@
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4">
-        <v>17</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>91</v>
+      <c r="A53" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>92</v>
+      <c r="A54" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="1" t="s">
-        <v>93</v>
+      <c r="F54" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>94</v>
+      <c r="A55" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="F55" s="2"/>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>97</v>
+      <c r="A57" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="1" t="s">
-        <v>98</v>
+      <c r="F57" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>99</v>
+      <c r="A59" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>101</v>
+      <c r="A60" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>102</v>
+      <c r="A61" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="G61" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>9</v>
@@ -4162,14 +3714,14 @@
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4" t="s">
-        <v>164</v>
+      <c r="F62" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>9</v>
@@ -4179,14 +3731,14 @@
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
-        <v>166</v>
+      <c r="F63" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>9</v>
@@ -4196,14 +3748,14 @@
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>166</v>
+      <c r="F64" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>104</v>
+      <c r="A65" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>9</v>
@@ -4213,12 +3765,14 @@
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="F65" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>9</v>
@@ -4228,69 +3782,71 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="F66" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>130</v>
+      <c r="A67" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="F67" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>90</v>
+      <c r="A68" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>107</v>
+      <c r="A69" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="F69" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -4299,75 +3855,79 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
-        <v>111</v>
+      <c r="A73" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -4375,29 +3935,35 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>170</v>
+      <c r="A76" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4405,23 +3971,29 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>114</v>
+      <c r="A78" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="G78" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>9</v>
@@ -4436,7 +4008,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>9</v>
@@ -4451,7 +4023,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>9</v>
@@ -4465,8 +4037,8 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>117</v>
+      <c r="A82" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>9</v>
@@ -4480,8 +4052,8 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>128</v>
+      <c r="A83" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>9</v>
@@ -4495,8 +4067,8 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>173</v>
+      <c r="A84" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>9</v>
@@ -4506,39 +4078,35 @@
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="F84" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>168</v>
+      <c r="A85" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="4">
-        <v>1</v>
-      </c>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>130</v>
+      <c r="A86" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4547,30 +4115,28 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>3</v>
+        <v>166</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4">
-        <v>21</v>
-      </c>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>11</v>
+      <c r="A88" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>175</v>
+      <c r="C88" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -4579,13 +4145,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>175</v>
+      <c r="C89" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4593,14 +4159,14 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>13</v>
+      <c r="A90" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>175</v>
+      <c r="C90" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4608,14 +4174,14 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>14</v>
+      <c r="A91" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>175</v>
+      <c r="C91" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -4624,13 +4190,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>175</v>
+      <c r="C92" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -4638,14 +4204,14 @@
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>16</v>
+      <c r="A93" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>175</v>
+      <c r="C93" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -4653,14 +4219,14 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>17</v>
+      <c r="A94" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>175</v>
+      <c r="C94" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -4668,31 +4234,35 @@
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="4"/>
+      <c r="C95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>176</v>
+        <v>10</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -4700,29 +4270,31 @@
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D97" s="4"/>
+      <c r="A97" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="1"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="G97" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -4731,13 +4303,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -4746,13 +4318,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>130</v>
+        <v>13</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -4760,31 +4332,29 @@
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="A101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4">
-        <v>3</v>
-      </c>
+      <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>179</v>
+      <c r="A102" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -4792,14 +4362,14 @@
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>180</v>
+      <c r="A103" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -4808,62 +4378,60 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D105" s="4"/>
+      <c r="C105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="1"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="G105" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="A106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4">
-        <v>2</v>
-      </c>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -4871,31 +4439,29 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D108" s="1"/>
+      <c r="A108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4">
-        <v>2</v>
-      </c>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4903,46 +4469,46 @@
       <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>187</v>
+      <c r="A110" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>177</v>
+        <v>7</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4">
-        <v>1</v>
-      </c>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="A111" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="G111" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>130</v>
+      <c r="A112" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4950,114 +4516,110 @@
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>18</v>
+      <c r="A113" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4">
-        <v>1</v>
-      </c>
+      <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G114" s="4"/>
+      <c r="A114" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="F115" s="4"/>
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G116" s="4"/>
+      <c r="A116" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>18</v>
+      <c r="A117" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="4">
-        <v>14</v>
-      </c>
+      <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" s="1"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
+      <c r="G118" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>52</v>
+      <c r="A119" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -5066,49 +4628,45 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>19</v>
+        <v>178</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
+      <c r="G120" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="A121" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4">
-        <v>7</v>
-      </c>
+      <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -5116,89 +4674,103 @@
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>21</v>
+      <c r="A123" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="G123" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
+      <c r="F124" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
+      <c r="F125" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="F126" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
+      <c r="A127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>204</v>
+      </c>
       <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="G127" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>24</v>
+      <c r="A128" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -5206,14 +4778,14 @@
       <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>25</v>
+      <c r="A129" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -5221,14 +4793,14 @@
       <c r="G129" s="4"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="13" t="s">
-        <v>28</v>
+      <c r="A130" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -5236,67 +4808,61 @@
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B131" s="5" t="s">
+      <c r="A131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4">
         <v>7</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A132" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="4">
-        <v>3</v>
-      </c>
+      <c r="G132" s="4"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="F133" s="4"/>
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -5305,13 +4871,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -5320,13 +4886,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -5334,35 +4900,29 @@
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>200</v>
-      </c>
+      <c r="A137" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="4">
-        <v>7</v>
-      </c>
+      <c r="G137" s="4"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>201</v>
+      <c r="A138" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -5371,13 +4931,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -5385,14 +4945,14 @@
       <c r="G139" s="4"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>203</v>
+      <c r="A140" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -5400,14 +4960,14 @@
       <c r="G140" s="4"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>29</v>
+      <c r="A141" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -5415,44 +4975,52 @@
       <c r="G141" s="4"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="B142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
+      <c r="G142" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
+      <c r="F143" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="G143" s="4"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -5460,71 +5028,65 @@
       <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B145" s="2" t="s">
+      <c r="A145" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
+      <c r="C147" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
+      <c r="G147" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>34</v>
+      <c r="A148" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -5532,35 +5094,29 @@
       <c r="G148" s="4"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E149" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A149" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="4">
-        <v>1</v>
-      </c>
+      <c r="G149" s="4"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>130</v>
+        <v>193</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -5569,30 +5125,28 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="4">
-        <v>120</v>
-      </c>
+      <c r="G151" s="4"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="16" t="s">
-        <v>36</v>
+      <c r="A152" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -5600,14 +5154,14 @@
       <c r="G152" s="4"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="16" t="s">
-        <v>37</v>
+      <c r="A153" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -5615,14 +5169,14 @@
       <c r="G153" s="4"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="16" t="s">
-        <v>38</v>
+      <c r="A154" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -5630,46 +5184,56 @@
       <c r="G154" s="4"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
+      <c r="A155" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
+      <c r="G155" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G156" s="4"/>
+      <c r="A156" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -5678,13 +5242,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -5692,19 +5256,25 @@
       <c r="G158" s="4"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
+      <c r="A159" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
+      <c r="G159" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
@@ -5714,7 +5284,7 @@
         <v>7</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -5816,7 +5386,7 @@
         <v>207</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4">
@@ -5825,7 +5395,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>3</v>
@@ -5834,10 +5404,10 @@
         <v>42</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4">
@@ -5852,7 +5422,7 @@
         <v>9</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -5867,7 +5437,7 @@
         <v>9</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -5876,7 +5446,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>3</v>
@@ -5885,7 +5455,7 @@
         <v>42</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>49</v>
@@ -5929,304 +5499,320 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="149" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="147" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="145" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="143" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86 A3:A4 A34:A35 A51:A52 A67">
-    <cfRule type="duplicateValues" dxfId="141" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="139" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:A101 A104 A106 A108 A110">
-    <cfRule type="duplicateValues" dxfId="137" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="135" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149">
-    <cfRule type="duplicateValues" dxfId="133" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A4">
+    <cfRule type="duplicateValues" dxfId="153" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A12">
+    <cfRule type="duplicateValues" dxfId="151" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A42">
+    <cfRule type="duplicateValues" dxfId="149" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="147" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:A49">
+    <cfRule type="duplicateValues" dxfId="145" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:A60">
+    <cfRule type="duplicateValues" dxfId="143" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:A75">
+    <cfRule type="duplicateValues" dxfId="141" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="duplicateValues" dxfId="139" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="duplicateValues" dxfId="137" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:A94">
+    <cfRule type="duplicateValues" dxfId="135" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="duplicateValues" dxfId="133" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96 A13:A14 A44:A45 A77 A61">
+    <cfRule type="duplicateValues" dxfId="131" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="duplicateValues" dxfId="129" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:A104">
+    <cfRule type="duplicateValues" dxfId="127" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="duplicateValues" dxfId="125" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:A109">
+    <cfRule type="duplicateValues" dxfId="123" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:A111 A114 A116 A118 A120">
+    <cfRule type="duplicateValues" dxfId="121" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:A113">
+    <cfRule type="duplicateValues" dxfId="119" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="duplicateValues" dxfId="117" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="duplicateValues" dxfId="115" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="duplicateValues" dxfId="113" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="111" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A126">
+    <cfRule type="duplicateValues" dxfId="109" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:A130">
+    <cfRule type="duplicateValues" dxfId="107" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:A140 A132:A134">
+    <cfRule type="duplicateValues" dxfId="105" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="duplicateValues" dxfId="103" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="duplicateValues" dxfId="101" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143:A146">
+    <cfRule type="duplicateValues" dxfId="99" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148:A154">
+    <cfRule type="duplicateValues" dxfId="97" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155">
+    <cfRule type="duplicateValues" dxfId="95" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:A158">
+    <cfRule type="duplicateValues" dxfId="93" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159">
+    <cfRule type="duplicateValues" dxfId="91" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:A165">
+    <cfRule type="duplicateValues" dxfId="89" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166">
-    <cfRule type="duplicateValues" dxfId="131" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A171 A112:A113 A137 A146 A150:A151 A117 A121 A160:A161">
-    <cfRule type="duplicateValues" dxfId="129" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="duplicateValues" dxfId="127" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="duplicateValues" dxfId="125" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="duplicateValues" dxfId="123" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
-    <cfRule type="duplicateValues" dxfId="121" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="duplicateValues" dxfId="119" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="duplicateValues" dxfId="117" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D132">
-    <cfRule type="duplicateValues" dxfId="115" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D137">
-    <cfRule type="duplicateValues" dxfId="113" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D145">
-    <cfRule type="duplicateValues" dxfId="111" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D149">
-    <cfRule type="duplicateValues" dxfId="107" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:A169">
+    <cfRule type="duplicateValues" dxfId="85" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171 A122:A123 A147 A156 A127 A131 A160:A161">
+    <cfRule type="duplicateValues" dxfId="83" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172">
+    <cfRule type="duplicateValues" dxfId="81" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="duplicateValues" dxfId="79" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="duplicateValues" dxfId="77" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="duplicateValues" dxfId="75" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="duplicateValues" dxfId="73" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="duplicateValues" dxfId="71" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76">
+    <cfRule type="duplicateValues" dxfId="69" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78">
+    <cfRule type="duplicateValues" dxfId="67" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="duplicateValues" dxfId="65" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="duplicateValues" dxfId="63" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
+    <cfRule type="duplicateValues" dxfId="61" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D111">
+    <cfRule type="duplicateValues" dxfId="59" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="duplicateValues" dxfId="57" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="duplicateValues" dxfId="55" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118">
+    <cfRule type="duplicateValues" dxfId="53" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D127">
+    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D131">
+    <cfRule type="duplicateValues" dxfId="49" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D142">
+    <cfRule type="duplicateValues" dxfId="47" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D147">
+    <cfRule type="duplicateValues" dxfId="45" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
+    <cfRule type="duplicateValues" dxfId="43" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D156">
+    <cfRule type="duplicateValues" dxfId="41" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159">
+    <cfRule type="duplicateValues" dxfId="39" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D166">
-    <cfRule type="duplicateValues" dxfId="105" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="duplicateValues" dxfId="103" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="duplicateValues" dxfId="101" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="duplicateValues" dxfId="99" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="duplicateValues" dxfId="97" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
-    <cfRule type="duplicateValues" dxfId="95" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="duplicateValues" dxfId="93" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="duplicateValues" dxfId="91" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
-    <cfRule type="duplicateValues" dxfId="89" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="duplicateValues" dxfId="35" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="duplicateValues" dxfId="33" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="duplicateValues" dxfId="31" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="duplicateValues" dxfId="27" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="duplicateValues" dxfId="25" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="duplicateValues" dxfId="23" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="duplicateValues" dxfId="21" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="duplicateValues" dxfId="19" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="duplicateValues" dxfId="15" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="duplicateValues" dxfId="13" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147">
+    <cfRule type="duplicateValues" dxfId="11" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="duplicateValues" dxfId="9" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="duplicateValues" dxfId="7" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="duplicateValues" dxfId="5" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="duplicateValues" dxfId="87" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E146">
-    <cfRule type="duplicateValues" dxfId="85" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="duplicateValues" dxfId="83" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="duplicateValues" dxfId="81" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="duplicateValues" dxfId="79" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="77" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="75" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A32">
-    <cfRule type="duplicateValues" dxfId="73" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="71" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="69" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="duplicateValues" dxfId="67" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="duplicateValues" dxfId="65" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:A50">
-    <cfRule type="duplicateValues" dxfId="63" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A39">
-    <cfRule type="duplicateValues" dxfId="61" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A66">
-    <cfRule type="duplicateValues" dxfId="59" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="duplicateValues" dxfId="57" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="duplicateValues" dxfId="55" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A84">
-    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="51" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="49" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="duplicateValues" dxfId="47" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A94">
-    <cfRule type="duplicateValues" dxfId="45" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:A99">
-    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="41" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
-    <cfRule type="duplicateValues" dxfId="39" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A103">
-    <cfRule type="duplicateValues" dxfId="37" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="33" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="31" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
-    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114:A116">
-    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:A120">
-    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:A130 A122:A124">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D121">
-    <cfRule type="duplicateValues" dxfId="21" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="duplicateValues" dxfId="19" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133:A136">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138:A144">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:A148">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:A159">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:A165">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:A169">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
